--- a/Work/Modern Ways/Talk Time/Lesson Deployment2/Product/Twogram Threegram Youtube Link Selected_Count.xlsx
+++ b/Work/Modern Ways/Talk Time/Lesson Deployment2/Product/Twogram Threegram Youtube Link Selected_Count.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">video_url</t>
   </si>
   <si>
-    <t xml:space="preserve">id</t>
+    <t xml:space="preserve">video_id</t>
   </si>
   <si>
     <t xml:space="preserve">count</t>
@@ -2972,10 +2972,10 @@
   <dimension ref="A1:F453"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E:E"/>
+      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="53.7"/>

--- a/Work/Modern Ways/Talk Time/Lesson Deployment2/Product/Twogram Threegram Youtube Link Selected_Count.xlsx
+++ b/Work/Modern Ways/Talk Time/Lesson Deployment2/Product/Twogram Threegram Youtube Link Selected_Count.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="971">
   <si>
     <t xml:space="preserve">search_string</t>
   </si>
@@ -2164,6 +2164,18 @@
     <t xml:space="preserve">yGMZGa090vU</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=OiD6A0UMNJ8&amp;t=830s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OiD6A0UMNJ8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=2c6JXo1iJUs&amp;t=940s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2c6JXo1iJUs</t>
+  </si>
+  <si>
     <t xml:space="preserve">senin için</t>
   </si>
   <si>
@@ -2191,6 +2203,21 @@
     <t xml:space="preserve">BxSZ84hmtmE</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=OTDkvCGQyVQ&amp;t=1673s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTDkvCGQyVQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=FO07ssbT9bA&amp;t=1586s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=buS3wjzkPew&amp;t=832s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buS3wjzkPew</t>
+  </si>
+  <si>
     <t xml:space="preserve">orada mısın</t>
   </si>
   <si>
@@ -2218,6 +2245,21 @@
     <t xml:space="preserve">zGtfxNItG6E</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=zgQbOmPp9pk&amp;t=6230s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zgQbOmPp9pk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=rAkxQk_SimU&amp;t=3153s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=D6Va3TXwFEQ&amp;t=2234s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D6Va3TXwFEQ</t>
+  </si>
+  <si>
     <t xml:space="preserve">neler oluyor orada</t>
   </si>
   <si>
@@ -2263,6 +2305,24 @@
     <t xml:space="preserve">d3LdJzLdpCI</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=jryVCDO7PTo&amp;t=330s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jryVCDO7PTo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=Es7EfSMiXmU&amp;t=43s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es7EfSMiXmU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=kJHnaKS0Igg&amp;t=102s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kJHnaKS0Igg</t>
+  </si>
+  <si>
     <t xml:space="preserve">kimse var mı</t>
   </si>
   <si>
@@ -2272,7 +2332,7 @@
     <t xml:space="preserve">QIY5a9P6030</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=7G29Odeyqpk&amp;t=3220s</t>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=7G29Odeyqpk&amp;t=3221s</t>
   </si>
   <si>
     <t xml:space="preserve">7G29Odeyqpk</t>
@@ -2290,6 +2350,18 @@
     <t xml:space="preserve">tZhwCfkzPl0</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=pkYbaLz6qjM&amp;t=156s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pkYbaLz6qjM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=8xaLfHCU2KM&amp;t=4778s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8xaLfHCU2KM</t>
+  </si>
+  <si>
     <t xml:space="preserve">hiçbir sorun yok</t>
   </si>
   <si>
@@ -2314,6 +2386,18 @@
     <t xml:space="preserve">gE85fd99w44</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=nPVd4XaeM34&amp;t=1643s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nPVd4XaeM34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=Su_bfE13oc8&amp;t=4065s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Su_bfE13oc8</t>
+  </si>
+  <si>
     <t xml:space="preserve">gerek yok</t>
   </si>
   <si>
@@ -2338,6 +2422,24 @@
     <t xml:space="preserve">https://www.youtube.com/watch?v=EFEFEcYl9es&amp;t=4785s</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=8QOE7g7D9J8&amp;t=530s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8QOE7g7D9J8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=w7ksvoT60Xk&amp;t=636s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w7ksvoT60Xk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=84Q__dx_G4w&amp;t=51s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84Q__dx_G4w</t>
+  </si>
+  <si>
     <t xml:space="preserve">evet öyle</t>
   </si>
   <si>
@@ -2587,9 +2689,6 @@
     <t xml:space="preserve">https://www.youtube.com/watch?v=zgQbOmPp9pk&amp;t=2226s</t>
   </si>
   <si>
-    <t xml:space="preserve">zgQbOmPp9pk</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=pHR9Y_R6DGQ&amp;t=602s</t>
   </si>
   <si>
@@ -2657,9 +2756,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=OTDkvCGQyVQ&amp;t=3392s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTDkvCGQyVQ</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=y3rhd_QEgck&amp;t=4017s</t>
@@ -2846,7 +2942,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2885,13 +2981,27 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF860D"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2938,7 +3048,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2951,6 +3061,46 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2961,6 +3111,66 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF860D"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2969,16 +3179,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F453"/>
+  <dimension ref="A1:AMJ472"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A376" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G394" activeCellId="0" sqref="G394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="53.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
@@ -9822,25 +10033,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="0" t="s">
+    <row r="343" s="5" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="B343" s="0" t="n">
+      <c r="B343" s="3" t="n">
         <v>7293</v>
       </c>
-      <c r="C343" s="0" t="n">
+      <c r="C343" s="3" t="n">
         <v>7295</v>
       </c>
-      <c r="D343" s="2" t="s">
+      <c r="D343" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="E343" s="0" t="s">
+      <c r="E343" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="F343" s="0" t="n">
-        <v>4</v>
-      </c>
+      <c r="F343" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AMJ343" s="3"/>
     </row>
     <row r="344" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
@@ -9859,7 +10071,7 @@
         <v>709</v>
       </c>
       <c r="F344" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9879,7 +10091,7 @@
         <v>711</v>
       </c>
       <c r="F345" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9899,58 +10111,58 @@
         <v>713</v>
       </c>
       <c r="F346" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="347" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="347" s="8" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="B347" s="6" t="n">
+        <v>830</v>
+      </c>
+      <c r="C347" s="6" t="n">
+        <v>832</v>
+      </c>
+      <c r="D347" s="7" t="s">
         <v>714</v>
       </c>
-      <c r="B347" s="0" t="n">
-        <v>1413</v>
-      </c>
-      <c r="C347" s="0" t="n">
-        <v>1415</v>
-      </c>
-      <c r="D347" s="2" t="s">
+      <c r="E347" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="E347" s="0" t="s">
+      <c r="F347" s="8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="348" s="8" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="B348" s="6" t="n">
+        <v>940</v>
+      </c>
+      <c r="C348" s="6" t="n">
+        <v>942</v>
+      </c>
+      <c r="D348" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="F347" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="348" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="0" t="s">
-        <v>714</v>
-      </c>
-      <c r="B348" s="0" t="n">
-        <v>660</v>
-      </c>
-      <c r="C348" s="0" t="n">
-        <v>662</v>
-      </c>
-      <c r="D348" s="2" t="s">
+      <c r="E348" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="E348" s="0" t="s">
-        <v>718</v>
-      </c>
-      <c r="F348" s="0" t="n">
-        <v>4</v>
+      <c r="F348" s="8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="B349" s="0" t="n">
-        <v>8100</v>
+        <v>1413</v>
       </c>
       <c r="C349" s="0" t="n">
-        <v>8102</v>
+        <v>1415</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>719</v>
@@ -9959,18 +10171,18 @@
         <v>720</v>
       </c>
       <c r="F349" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="B350" s="0" t="n">
-        <v>415</v>
+        <v>660</v>
       </c>
       <c r="C350" s="0" t="n">
-        <v>417</v>
+        <v>662</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>721</v>
@@ -9979,107 +10191,107 @@
         <v>722</v>
       </c>
       <c r="F350" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="B351" s="0" t="n">
+        <v>8100</v>
+      </c>
+      <c r="C351" s="0" t="n">
+        <v>8102</v>
+      </c>
+      <c r="D351" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="B351" s="0" t="n">
-        <v>1006</v>
-      </c>
-      <c r="C351" s="0" t="n">
-        <v>1008</v>
-      </c>
-      <c r="D351" s="2" t="s">
+      <c r="E351" s="0" t="s">
         <v>724</v>
       </c>
-      <c r="E351" s="0" t="s">
-        <v>725</v>
-      </c>
       <c r="F351" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B352" s="0" t="n">
-        <v>1800</v>
+        <v>415</v>
       </c>
       <c r="C352" s="0" t="n">
-        <v>1802</v>
+        <v>417</v>
       </c>
       <c r="D352" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="E352" s="0" t="s">
         <v>726</v>
       </c>
-      <c r="E352" s="0" t="s">
+      <c r="F352" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="353" s="8" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="B353" s="6" t="n">
+        <v>1673</v>
+      </c>
+      <c r="C353" s="6" t="n">
+        <v>1675</v>
+      </c>
+      <c r="D353" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="F352" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="353" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="0" t="s">
-        <v>723</v>
-      </c>
-      <c r="B353" s="0" t="n">
-        <v>7170</v>
-      </c>
-      <c r="C353" s="0" t="n">
-        <v>7173</v>
-      </c>
-      <c r="D353" s="2" t="s">
+      <c r="E353" s="6" t="s">
         <v>728</v>
       </c>
-      <c r="E353" s="0" t="s">
+      <c r="F353" s="8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="354" s="8" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="B354" s="6" t="n">
+        <v>1586</v>
+      </c>
+      <c r="C354" s="6" t="n">
+        <v>1588</v>
+      </c>
+      <c r="D354" s="7" t="s">
         <v>729</v>
       </c>
-      <c r="F353" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="354" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="0" t="s">
-        <v>723</v>
-      </c>
-      <c r="B354" s="0" t="n">
-        <v>303</v>
-      </c>
-      <c r="C354" s="0" t="n">
-        <v>304</v>
-      </c>
-      <c r="D354" s="2" t="s">
+      <c r="E354" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F354" s="8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="355" s="8" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="B355" s="6" t="n">
+        <v>832</v>
+      </c>
+      <c r="C355" s="6" t="n">
+        <v>834</v>
+      </c>
+      <c r="D355" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="E354" s="0" t="s">
+      <c r="E355" s="6" t="s">
         <v>731</v>
       </c>
-      <c r="F354" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="355" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="0" t="s">
-        <v>732</v>
-      </c>
-      <c r="B355" s="0" t="n">
-        <v>3061</v>
-      </c>
-      <c r="C355" s="0" t="n">
-        <v>3063</v>
-      </c>
-      <c r="D355" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="E355" s="0" t="s">
-        <v>734</v>
-      </c>
-      <c r="F355" s="0" t="n">
-        <v>4</v>
+      <c r="F355" s="8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10087,19 +10299,19 @@
         <v>732</v>
       </c>
       <c r="B356" s="0" t="n">
-        <v>3783</v>
+        <v>1006</v>
       </c>
       <c r="C356" s="0" t="n">
-        <v>3785</v>
+        <v>1008</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E356" s="0" t="s">
-        <v>582</v>
+        <v>734</v>
       </c>
       <c r="F356" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10107,19 +10319,19 @@
         <v>732</v>
       </c>
       <c r="B357" s="0" t="n">
-        <v>108</v>
+        <v>1800</v>
       </c>
       <c r="C357" s="0" t="n">
-        <v>111</v>
+        <v>1802</v>
       </c>
       <c r="D357" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="E357" s="0" t="s">
         <v>736</v>
       </c>
-      <c r="E357" s="0" t="s">
-        <v>737</v>
-      </c>
       <c r="F357" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10127,116 +10339,116 @@
         <v>732</v>
       </c>
       <c r="B358" s="0" t="n">
-        <v>88</v>
+        <v>7170</v>
       </c>
       <c r="C358" s="0" t="n">
-        <v>92</v>
+        <v>7173</v>
       </c>
       <c r="D358" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="E358" s="0" t="s">
         <v>738</v>
       </c>
-      <c r="E358" s="0" t="s">
-        <v>739</v>
-      </c>
       <c r="F358" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="B359" s="0" t="n">
+        <v>303</v>
+      </c>
+      <c r="C359" s="0" t="n">
+        <v>304</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="E359" s="0" t="s">
         <v>740</v>
       </c>
-      <c r="B359" s="0" t="n">
-        <v>214</v>
-      </c>
-      <c r="C359" s="0" t="n">
-        <v>216</v>
-      </c>
-      <c r="D359" s="2" t="s">
+      <c r="F359" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="360" s="8" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="B360" s="6" t="n">
+        <v>6230</v>
+      </c>
+      <c r="C360" s="6" t="n">
+        <v>6232</v>
+      </c>
+      <c r="D360" s="7" t="s">
         <v>741</v>
       </c>
-      <c r="E359" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="F359" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="0" t="s">
-        <v>740</v>
-      </c>
-      <c r="B360" s="0" t="n">
-        <v>1935</v>
-      </c>
-      <c r="C360" s="0" t="n">
-        <v>1937</v>
-      </c>
-      <c r="D360" s="2" t="s">
+      <c r="E360" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="E360" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F360" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="361" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="0" t="s">
-        <v>740</v>
-      </c>
-      <c r="B361" s="0" t="n">
-        <v>4156</v>
-      </c>
-      <c r="C361" s="0" t="n">
-        <v>4158</v>
-      </c>
-      <c r="D361" s="2" t="s">
+      <c r="F360" s="8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361" s="8" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="B361" s="6" t="n">
+        <v>3153</v>
+      </c>
+      <c r="C361" s="6" t="n">
+        <v>3155</v>
+      </c>
+      <c r="D361" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="E361" s="0" t="s">
+      <c r="E361" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="F361" s="8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="362" s="8" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="B362" s="6" t="n">
+        <v>2234</v>
+      </c>
+      <c r="C362" s="6" t="n">
+        <v>2236</v>
+      </c>
+      <c r="D362" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="F361" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="362" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="0" t="s">
-        <v>740</v>
-      </c>
-      <c r="B362" s="0" t="n">
-        <v>2243</v>
-      </c>
-      <c r="C362" s="0" t="n">
-        <v>2245</v>
-      </c>
-      <c r="D362" s="2" t="s">
+      <c r="E362" s="6" t="s">
         <v>745</v>
       </c>
-      <c r="E362" s="0" t="s">
-        <v>746</v>
-      </c>
-      <c r="F362" s="0" t="n">
-        <v>4</v>
+      <c r="F362" s="8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="B363" s="0" t="n">
+        <v>3061</v>
+      </c>
+      <c r="C363" s="0" t="n">
+        <v>3063</v>
+      </c>
+      <c r="D363" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="B363" s="0" t="n">
-        <v>5415</v>
-      </c>
-      <c r="C363" s="0" t="n">
-        <v>5417</v>
-      </c>
-      <c r="D363" s="2" t="s">
+      <c r="E363" s="0" t="s">
         <v>748</v>
-      </c>
-      <c r="E363" s="0" t="s">
-        <v>749</v>
       </c>
       <c r="F363" s="0" t="n">
         <v>4</v>
@@ -10244,19 +10456,19 @@
     </row>
     <row r="364" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B364" s="0" t="n">
-        <v>3220</v>
+        <v>3783</v>
       </c>
       <c r="C364" s="0" t="n">
-        <v>3222</v>
+        <v>3785</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E364" s="0" t="s">
-        <v>751</v>
+        <v>582</v>
       </c>
       <c r="F364" s="0" t="n">
         <v>4</v>
@@ -10264,19 +10476,19 @@
     </row>
     <row r="365" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B365" s="0" t="n">
-        <v>2416</v>
+        <v>108</v>
       </c>
       <c r="C365" s="0" t="n">
-        <v>2418</v>
+        <v>111</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E365" s="0" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F365" s="0" t="n">
         <v>4</v>
@@ -10284,19 +10496,19 @@
     </row>
     <row r="366" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B366" s="0" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C366" s="0" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E366" s="0" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F366" s="0" t="n">
         <v>4</v>
@@ -10304,559 +10516,559 @@
     </row>
     <row r="367" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B367" s="0" t="n">
-        <v>90</v>
+        <v>214</v>
       </c>
       <c r="C367" s="0" t="n">
-        <v>93</v>
+        <v>216</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E367" s="0" t="s">
-        <v>62</v>
+        <v>238</v>
       </c>
       <c r="F367" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="B368" s="0" t="n">
+        <v>1935</v>
+      </c>
+      <c r="C368" s="0" t="n">
+        <v>1937</v>
+      </c>
+      <c r="D368" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="B368" s="0" t="n">
-        <v>435</v>
-      </c>
-      <c r="C368" s="0" t="n">
-        <v>438</v>
-      </c>
-      <c r="D368" s="2" t="s">
-        <v>758</v>
-      </c>
       <c r="E368" s="0" t="s">
-        <v>759</v>
+        <v>143</v>
       </c>
       <c r="F368" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B369" s="0" t="n">
-        <v>24</v>
+        <v>4156</v>
       </c>
       <c r="C369" s="0" t="n">
-        <v>26</v>
+        <v>4158</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E369" s="0" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="F369" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B370" s="0" t="n">
-        <v>2120</v>
+        <v>2243</v>
       </c>
       <c r="C370" s="0" t="n">
-        <v>2122</v>
+        <v>2245</v>
       </c>
       <c r="D370" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="E370" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="F370" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="371" s="8" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B371" s="6" t="n">
+        <v>330</v>
+      </c>
+      <c r="C371" s="6" t="n">
+        <v>332</v>
+      </c>
+      <c r="D371" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="E371" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="E370" s="0" t="s">
+      <c r="F371" s="8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="372" s="8" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B372" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="C372" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="D372" s="7" t="s">
         <v>763</v>
       </c>
-      <c r="F370" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="371" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="0" t="s">
+      <c r="E372" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="B371" s="0" t="n">
-        <v>1862</v>
-      </c>
-      <c r="C371" s="0" t="n">
-        <v>1864</v>
-      </c>
-      <c r="D371" s="2" t="s">
+      <c r="F372" s="8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="373" s="8" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B373" s="6" t="n">
+        <v>102</v>
+      </c>
+      <c r="C373" s="6" t="n">
+        <v>104</v>
+      </c>
+      <c r="D373" s="7" t="s">
         <v>765</v>
       </c>
-      <c r="E371" s="0" t="s">
+      <c r="E373" s="9" t="s">
         <v>766</v>
       </c>
-      <c r="F371" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="372" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="0" t="s">
-        <v>764</v>
-      </c>
-      <c r="B372" s="0" t="n">
-        <v>6615</v>
-      </c>
-      <c r="C372" s="0" t="n">
-        <v>6617</v>
-      </c>
-      <c r="D372" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="E372" s="0" t="s">
-        <v>768</v>
-      </c>
-      <c r="F372" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="373" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="0" t="s">
-        <v>764</v>
-      </c>
-      <c r="B373" s="0" t="n">
-        <v>353</v>
-      </c>
-      <c r="C373" s="0" t="n">
-        <v>355</v>
-      </c>
-      <c r="D373" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="E373" s="0" t="s">
-        <v>770</v>
-      </c>
-      <c r="F373" s="0" t="n">
-        <v>4</v>
+      <c r="F373" s="8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="B374" s="0" t="n">
-        <v>4785</v>
+        <v>5415</v>
       </c>
       <c r="C374" s="0" t="n">
-        <v>4787</v>
+        <v>5417</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E374" s="0" t="s">
-        <v>165</v>
+        <v>769</v>
       </c>
       <c r="F374" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="B375" s="0" t="n">
-        <v>7348</v>
+        <v>3221</v>
       </c>
       <c r="C375" s="0" t="n">
-        <v>7350</v>
-      </c>
-      <c r="D375" s="2" t="s">
-        <v>773</v>
+        <v>3223</v>
+      </c>
+      <c r="D375" s="10" t="s">
+        <v>770</v>
       </c>
       <c r="E375" s="0" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="F375" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="B376" s="0" t="n">
+        <v>2416</v>
+      </c>
+      <c r="C376" s="0" t="n">
+        <v>2418</v>
+      </c>
+      <c r="D376" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="B376" s="0" t="n">
-        <v>1406</v>
-      </c>
-      <c r="C376" s="0" t="n">
-        <v>1410</v>
-      </c>
-      <c r="D376" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E376" s="0" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="F376" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="B377" s="0" t="n">
-        <v>3016</v>
+        <v>94</v>
       </c>
       <c r="C377" s="0" t="n">
-        <v>3018</v>
+        <v>96</v>
       </c>
       <c r="D377" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="E377" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="F377" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="378" s="8" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="B378" s="6" t="n">
+        <v>156</v>
+      </c>
+      <c r="C378" s="6" t="n">
+        <v>158</v>
+      </c>
+      <c r="D378" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="E378" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="E377" s="0" t="s">
+      <c r="F378" s="8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="379" s="8" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="B379" s="6" t="n">
+        <v>4778</v>
+      </c>
+      <c r="C379" s="6" t="n">
+        <v>4780</v>
+      </c>
+      <c r="D379" s="7" t="s">
         <v>778</v>
       </c>
-      <c r="F377" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="378" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="0" t="s">
-        <v>772</v>
-      </c>
-      <c r="B378" s="0" t="n">
-        <v>6793</v>
-      </c>
-      <c r="C378" s="0" t="n">
-        <v>6795</v>
-      </c>
-      <c r="D378" s="2" t="s">
+      <c r="E379" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="E378" s="0" t="s">
-        <v>780</v>
-      </c>
-      <c r="F378" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="379" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="0" t="s">
-        <v>781</v>
-      </c>
-      <c r="B379" s="0" t="n">
-        <v>5711</v>
-      </c>
-      <c r="C379" s="0" t="n">
-        <v>5714</v>
-      </c>
-      <c r="D379" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="E379" s="0" t="s">
-        <v>783</v>
-      </c>
-      <c r="F379" s="0" t="n">
-        <v>4</v>
+      <c r="F379" s="8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="B380" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="C380" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="D380" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="B380" s="0" t="n">
-        <v>1480</v>
-      </c>
-      <c r="C380" s="0" t="n">
-        <v>1482</v>
-      </c>
-      <c r="D380" s="2" t="s">
-        <v>784</v>
-      </c>
       <c r="E380" s="0" t="s">
-        <v>785</v>
+        <v>62</v>
       </c>
       <c r="F380" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B381" s="0" t="n">
-        <v>7915</v>
+        <v>435</v>
       </c>
       <c r="C381" s="0" t="n">
-        <v>7918</v>
+        <v>438</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="E381" s="0" t="s">
-        <v>586</v>
+        <v>783</v>
       </c>
       <c r="F381" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B382" s="0" t="n">
-        <v>7644</v>
+        <v>24</v>
       </c>
       <c r="C382" s="0" t="n">
-        <v>7646</v>
+        <v>26</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E382" s="0" t="s">
-        <v>240</v>
+        <v>785</v>
       </c>
       <c r="F382" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="B383" s="0" t="n">
+        <v>2120</v>
+      </c>
+      <c r="C383" s="0" t="n">
+        <v>2122</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="E383" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="F383" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="384" s="8" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="B384" s="6" t="n">
+        <v>1643</v>
+      </c>
+      <c r="C384" s="6" t="n">
+        <v>1646</v>
+      </c>
+      <c r="D384" s="7" t="s">
         <v>788</v>
       </c>
-      <c r="B383" s="0" t="n">
-        <v>1390</v>
-      </c>
-      <c r="C383" s="0" t="n">
-        <v>1392</v>
-      </c>
-      <c r="D383" s="2" t="s">
+      <c r="E384" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="E383" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="F383" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="384" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="0" t="s">
-        <v>788</v>
-      </c>
-      <c r="B384" s="0" t="n">
-        <v>682</v>
-      </c>
-      <c r="C384" s="0" t="n">
-        <v>684</v>
-      </c>
-      <c r="D384" s="2" t="s">
+      <c r="F384" s="8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385" s="8" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="B385" s="6" t="n">
+        <v>551</v>
+      </c>
+      <c r="C385" s="6" t="n">
+        <v>553</v>
+      </c>
+      <c r="D385" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="E385" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="F385" s="8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="386" s="8" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="B386" s="6" t="n">
+        <v>4065</v>
+      </c>
+      <c r="C386" s="6" t="n">
+        <v>4067</v>
+      </c>
+      <c r="D386" s="7" t="s">
         <v>790</v>
       </c>
-      <c r="E384" s="0" t="s">
+      <c r="E386" s="9" t="s">
         <v>791</v>
       </c>
-      <c r="F384" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="385" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="0" t="s">
-        <v>788</v>
-      </c>
-      <c r="B385" s="0" t="n">
-        <v>5685</v>
-      </c>
-      <c r="C385" s="0" t="n">
-        <v>5687</v>
-      </c>
-      <c r="D385" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="E385" s="0" t="s">
-        <v>586</v>
-      </c>
-      <c r="F385" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="386" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="0" t="s">
-        <v>788</v>
-      </c>
-      <c r="B386" s="0" t="n">
-        <v>4250</v>
-      </c>
-      <c r="C386" s="0" t="n">
-        <v>4252</v>
-      </c>
-      <c r="D386" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="E386" s="0" t="s">
-        <v>491</v>
-      </c>
-      <c r="F386" s="0" t="n">
-        <v>4</v>
+      <c r="F386" s="8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="B387" s="0" t="n">
+        <v>1862</v>
+      </c>
+      <c r="C387" s="0" t="n">
+        <v>1864</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="E387" s="0" t="s">
         <v>794</v>
       </c>
-      <c r="B387" s="0" t="n">
-        <v>6832</v>
-      </c>
-      <c r="C387" s="0" t="n">
-        <v>6834</v>
-      </c>
-      <c r="D387" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="E387" s="0" t="s">
-        <v>796</v>
-      </c>
       <c r="F387" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B388" s="0" t="n">
-        <v>6848</v>
+        <v>6615</v>
       </c>
       <c r="C388" s="0" t="n">
-        <v>6851</v>
+        <v>6617</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E388" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F388" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B389" s="0" t="n">
-        <v>476</v>
+        <v>353</v>
       </c>
       <c r="C389" s="0" t="n">
-        <v>478</v>
+        <v>355</v>
       </c>
       <c r="D389" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E389" s="0" t="s">
         <v>798</v>
       </c>
-      <c r="E389" s="0" t="s">
-        <v>799</v>
-      </c>
       <c r="F389" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B390" s="0" t="n">
-        <v>2278</v>
+        <v>4785</v>
       </c>
       <c r="C390" s="0" t="n">
-        <v>2280</v>
+        <v>4787</v>
       </c>
       <c r="D390" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="E390" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F390" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="11" t="s">
+        <v>792</v>
+      </c>
+      <c r="B391" s="11" t="n">
+        <v>530</v>
+      </c>
+      <c r="C391" s="11" t="n">
+        <v>532</v>
+      </c>
+      <c r="D391" s="10" t="s">
         <v>800</v>
       </c>
-      <c r="E390" s="0" t="s">
+      <c r="E391" s="12" t="s">
         <v>801</v>
       </c>
-      <c r="F390" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="391" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="0" t="s">
+      <c r="F391" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="11" t="s">
+        <v>792</v>
+      </c>
+      <c r="B392" s="11" t="n">
+        <v>636</v>
+      </c>
+      <c r="C392" s="11" t="n">
+        <v>638</v>
+      </c>
+      <c r="D392" s="10" t="s">
         <v>802</v>
       </c>
-      <c r="B391" s="0" t="n">
-        <v>1226</v>
-      </c>
-      <c r="C391" s="0" t="n">
-        <v>1228</v>
-      </c>
-      <c r="D391" s="2" t="s">
+      <c r="E392" s="12" t="s">
         <v>803</v>
       </c>
-      <c r="E391" s="0" t="s">
+      <c r="F392" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="11" t="s">
+        <v>792</v>
+      </c>
+      <c r="B393" s="11" t="n">
+        <v>51</v>
+      </c>
+      <c r="C393" s="11" t="n">
+        <v>52</v>
+      </c>
+      <c r="D393" s="10" t="s">
         <v>804</v>
       </c>
-      <c r="F391" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="392" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="0" t="s">
-        <v>802</v>
-      </c>
-      <c r="B392" s="0" t="n">
-        <v>5837</v>
-      </c>
-      <c r="C392" s="0" t="n">
-        <v>5839</v>
-      </c>
-      <c r="D392" s="2" t="s">
+      <c r="E393" s="12" t="s">
         <v>805</v>
       </c>
-      <c r="E392" s="0" t="s">
-        <v>570</v>
-      </c>
-      <c r="F392" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="393" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="0" t="s">
-        <v>802</v>
-      </c>
-      <c r="B393" s="0" t="n">
-        <v>119</v>
-      </c>
-      <c r="C393" s="0" t="n">
-        <v>121</v>
-      </c>
-      <c r="D393" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="E393" s="0" t="s">
-        <v>807</v>
-      </c>
       <c r="F393" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="B394" s="0" t="n">
-        <v>2328</v>
+        <v>7348</v>
       </c>
       <c r="C394" s="0" t="n">
-        <v>2330</v>
+        <v>7350</v>
       </c>
       <c r="D394" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="E394" s="0" t="s">
         <v>808</v>
-      </c>
-      <c r="E394" s="0" t="s">
-        <v>809</v>
       </c>
       <c r="F394" s="0" t="n">
         <v>4</v>
@@ -10864,19 +11076,19 @@
     </row>
     <row r="395" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="B395" s="0" t="n">
+        <v>1406</v>
+      </c>
+      <c r="C395" s="0" t="n">
+        <v>1410</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="E395" s="0" t="s">
         <v>810</v>
-      </c>
-      <c r="B395" s="0" t="n">
-        <v>1738</v>
-      </c>
-      <c r="C395" s="0" t="n">
-        <v>1740</v>
-      </c>
-      <c r="D395" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="E395" s="0" t="s">
-        <v>812</v>
       </c>
       <c r="F395" s="0" t="n">
         <v>4</v>
@@ -10884,19 +11096,19 @@
     </row>
     <row r="396" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="B396" s="0" t="n">
-        <v>808</v>
+        <v>3016</v>
       </c>
       <c r="C396" s="0" t="n">
+        <v>3018</v>
+      </c>
+      <c r="D396" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="D396" s="2" t="s">
-        <v>813</v>
-      </c>
       <c r="E396" s="0" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F396" s="0" t="n">
         <v>4</v>
@@ -10904,19 +11116,19 @@
     </row>
     <row r="397" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="B397" s="0" t="n">
-        <v>196</v>
+        <v>6793</v>
       </c>
       <c r="C397" s="0" t="n">
-        <v>199</v>
+        <v>6795</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E397" s="0" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F397" s="0" t="n">
         <v>4</v>
@@ -10924,19 +11136,19 @@
     </row>
     <row r="398" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="B398" s="0" t="n">
-        <v>975</v>
+        <v>5711</v>
       </c>
       <c r="C398" s="0" t="n">
-        <v>978</v>
+        <v>5714</v>
       </c>
       <c r="D398" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="E398" s="0" t="s">
         <v>817</v>
-      </c>
-      <c r="E398" s="0" t="s">
-        <v>818</v>
       </c>
       <c r="F398" s="0" t="n">
         <v>4</v>
@@ -10944,19 +11156,19 @@
     </row>
     <row r="399" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="B399" s="0" t="n">
+        <v>1480</v>
+      </c>
+      <c r="C399" s="0" t="n">
+        <v>1482</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="E399" s="0" t="s">
         <v>819</v>
-      </c>
-      <c r="B399" s="0" t="n">
-        <v>7353</v>
-      </c>
-      <c r="C399" s="0" t="n">
-        <v>7355</v>
-      </c>
-      <c r="D399" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="E399" s="0" t="s">
-        <v>821</v>
       </c>
       <c r="F399" s="0" t="n">
         <v>4</v>
@@ -10964,19 +11176,19 @@
     </row>
     <row r="400" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B400" s="0" t="n">
-        <v>3172</v>
+        <v>7915</v>
       </c>
       <c r="C400" s="0" t="n">
-        <v>3174</v>
+        <v>7918</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E400" s="0" t="s">
-        <v>108</v>
+        <v>586</v>
       </c>
       <c r="F400" s="0" t="n">
         <v>4</v>
@@ -10984,19 +11196,19 @@
     </row>
     <row r="401" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B401" s="0" t="n">
-        <v>3411</v>
+        <v>7644</v>
       </c>
       <c r="C401" s="0" t="n">
-        <v>3413</v>
+        <v>7646</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E401" s="0" t="s">
-        <v>824</v>
+        <v>240</v>
       </c>
       <c r="F401" s="0" t="n">
         <v>4</v>
@@ -11004,19 +11216,19 @@
     </row>
     <row r="402" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B402" s="0" t="n">
-        <v>5911</v>
+        <v>1390</v>
       </c>
       <c r="C402" s="0" t="n">
-        <v>5913</v>
+        <v>1392</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E402" s="0" t="s">
-        <v>826</v>
+        <v>335</v>
       </c>
       <c r="F402" s="0" t="n">
         <v>4</v>
@@ -11024,399 +11236,399 @@
     </row>
     <row r="403" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="B403" s="0" t="n">
-        <v>1643</v>
+        <v>682</v>
       </c>
       <c r="C403" s="0" t="n">
-        <v>1645</v>
+        <v>684</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="E403" s="0" t="s">
-        <v>809</v>
+        <v>825</v>
       </c>
       <c r="F403" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="B404" s="0" t="n">
-        <v>1479</v>
+        <v>5685</v>
       </c>
       <c r="C404" s="0" t="n">
-        <v>1482</v>
+        <v>5687</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="E404" s="0" t="s">
-        <v>830</v>
+        <v>586</v>
       </c>
       <c r="F404" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="B405" s="0" t="n">
+        <v>4250</v>
+      </c>
+      <c r="C405" s="0" t="n">
+        <v>4252</v>
+      </c>
+      <c r="D405" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="B405" s="0" t="n">
-        <v>706</v>
-      </c>
-      <c r="C405" s="0" t="n">
-        <v>709</v>
-      </c>
-      <c r="D405" s="2" t="s">
-        <v>831</v>
-      </c>
       <c r="E405" s="0" t="s">
-        <v>832</v>
+        <v>491</v>
       </c>
       <c r="F405" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="B406" s="0" t="n">
-        <v>831</v>
+        <v>6832</v>
       </c>
       <c r="C406" s="0" t="n">
-        <v>833</v>
+        <v>6834</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="E406" s="0" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="F406" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="B407" s="0" t="n">
-        <v>98</v>
+        <v>6848</v>
       </c>
       <c r="C407" s="0" t="n">
-        <v>100</v>
+        <v>6851</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="E407" s="0" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="F407" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="B408" s="0" t="n">
+        <v>476</v>
+      </c>
+      <c r="C408" s="0" t="n">
+        <v>478</v>
+      </c>
+      <c r="D408" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E408" s="0" t="s">
         <v>833</v>
       </c>
-      <c r="B408" s="0" t="n">
-        <v>858</v>
-      </c>
-      <c r="C408" s="0" t="n">
-        <v>860</v>
-      </c>
-      <c r="D408" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="E408" s="0" t="s">
-        <v>839</v>
-      </c>
       <c r="F408" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="B409" s="0" t="n">
-        <v>213</v>
+        <v>2278</v>
       </c>
       <c r="C409" s="0" t="n">
-        <v>216</v>
+        <v>2280</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="E409" s="0" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="F409" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B410" s="0" t="n">
-        <v>681</v>
+        <v>1226</v>
       </c>
       <c r="C410" s="0" t="n">
-        <v>683</v>
+        <v>1228</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="E410" s="0" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="F410" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B411" s="0" t="n">
-        <v>1929</v>
+        <v>5837</v>
       </c>
       <c r="C411" s="0" t="n">
-        <v>1931</v>
+        <v>5839</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="E411" s="0" t="s">
-        <v>671</v>
+        <v>570</v>
       </c>
       <c r="F411" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B412" s="0" t="n">
-        <v>1294</v>
+        <v>119</v>
       </c>
       <c r="C412" s="0" t="n">
-        <v>1296</v>
+        <v>121</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="E412" s="0" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="F412" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B413" s="0" t="n">
-        <v>4899</v>
+        <v>2328</v>
       </c>
       <c r="C413" s="0" t="n">
-        <v>4902</v>
+        <v>2330</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="E413" s="0" t="s">
-        <v>147</v>
+        <v>843</v>
       </c>
       <c r="F413" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="B414" s="0" t="n">
+        <v>1738</v>
+      </c>
+      <c r="C414" s="0" t="n">
+        <v>1740</v>
+      </c>
+      <c r="D414" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="E414" s="0" t="s">
         <v>846</v>
       </c>
-      <c r="B414" s="0" t="n">
-        <v>5929</v>
-      </c>
-      <c r="C414" s="0" t="n">
-        <v>5931</v>
-      </c>
-      <c r="D414" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="E414" s="0" t="s">
-        <v>586</v>
-      </c>
       <c r="F414" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="B415" s="0" t="n">
-        <v>1036</v>
+        <v>808</v>
       </c>
       <c r="C415" s="0" t="n">
-        <v>1039</v>
+        <v>811</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="E415" s="0" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="F415" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="B416" s="0" t="n">
-        <v>2226</v>
+        <v>196</v>
       </c>
       <c r="C416" s="0" t="n">
-        <v>2230</v>
+        <v>199</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="E416" s="0" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="F416" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="B417" s="0" t="n">
+        <v>975</v>
+      </c>
+      <c r="C417" s="0" t="n">
+        <v>978</v>
+      </c>
+      <c r="D417" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="B417" s="0" t="n">
-        <v>602</v>
-      </c>
-      <c r="C417" s="0" t="n">
-        <v>606</v>
-      </c>
-      <c r="D417" s="2" t="s">
-        <v>856</v>
-      </c>
       <c r="E417" s="0" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="F417" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="B418" s="0" t="n">
-        <v>1036</v>
+        <v>7353</v>
       </c>
       <c r="C418" s="0" t="n">
-        <v>1038</v>
+        <v>7355</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="E418" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="F418" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="B419" s="0" t="n">
-        <v>8</v>
+        <v>3172</v>
       </c>
       <c r="C419" s="0" t="n">
-        <v>9</v>
+        <v>3174</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="E419" s="0" t="s">
-        <v>860</v>
+        <v>108</v>
       </c>
       <c r="F419" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="B420" s="0" t="n">
+        <v>3411</v>
+      </c>
+      <c r="C420" s="0" t="n">
+        <v>3413</v>
+      </c>
+      <c r="D420" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="E420" s="0" t="s">
         <v>858</v>
       </c>
-      <c r="B420" s="0" t="n">
-        <v>4216</v>
-      </c>
-      <c r="C420" s="0" t="n">
-        <v>4219</v>
-      </c>
-      <c r="D420" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="E420" s="0" t="s">
-        <v>862</v>
-      </c>
       <c r="F420" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="B421" s="0" t="n">
-        <v>798</v>
+        <v>5911</v>
       </c>
       <c r="C421" s="0" t="n">
-        <v>802</v>
+        <v>5913</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="E421" s="0" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="F421" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B422" s="0" t="n">
-        <v>568</v>
+        <v>1643</v>
       </c>
       <c r="C422" s="0" t="n">
-        <v>570</v>
+        <v>1645</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="E422" s="0" t="s">
-        <v>867</v>
+        <v>843</v>
       </c>
       <c r="F422" s="0" t="n">
         <v>3</v>
@@ -11424,19 +11636,19 @@
     </row>
     <row r="423" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="B423" s="0" t="n">
+        <v>1479</v>
+      </c>
+      <c r="C423" s="0" t="n">
+        <v>1482</v>
+      </c>
+      <c r="D423" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="B423" s="0" t="n">
-        <v>3985</v>
-      </c>
-      <c r="C423" s="0" t="n">
-        <v>3987</v>
-      </c>
-      <c r="D423" s="2" t="s">
-        <v>868</v>
-      </c>
       <c r="E423" s="0" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="F423" s="0" t="n">
         <v>3</v>
@@ -11444,19 +11656,19 @@
     </row>
     <row r="424" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="B424" s="0" t="n">
-        <v>3255</v>
+        <v>706</v>
       </c>
       <c r="C424" s="0" t="n">
-        <v>3256</v>
+        <v>709</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="E424" s="0" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="F424" s="0" t="n">
         <v>3</v>
@@ -11464,19 +11676,19 @@
     </row>
     <row r="425" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B425" s="0" t="n">
-        <v>2741</v>
+        <v>831</v>
       </c>
       <c r="C425" s="0" t="n">
-        <v>2743</v>
+        <v>833</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="E425" s="0" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="F425" s="0" t="n">
         <v>3</v>
@@ -11484,19 +11696,19 @@
     </row>
     <row r="426" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
+        <v>867</v>
+      </c>
+      <c r="B426" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="C426" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D426" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="B426" s="0" t="n">
-        <v>1738</v>
-      </c>
-      <c r="C426" s="0" t="n">
-        <v>1740</v>
-      </c>
-      <c r="D426" s="2" t="s">
-        <v>875</v>
-      </c>
       <c r="E426" s="0" t="s">
-        <v>570</v>
+        <v>871</v>
       </c>
       <c r="F426" s="0" t="n">
         <v>3</v>
@@ -11504,19 +11716,19 @@
     </row>
     <row r="427" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="B427" s="0" t="n">
-        <v>254</v>
+        <v>858</v>
       </c>
       <c r="C427" s="0" t="n">
-        <v>257</v>
+        <v>860</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="E427" s="0" t="s">
-        <v>398</v>
+        <v>873</v>
       </c>
       <c r="F427" s="0" t="n">
         <v>3</v>
@@ -11524,19 +11736,19 @@
     </row>
     <row r="428" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="B428" s="0" t="n">
+        <v>213</v>
+      </c>
+      <c r="C428" s="0" t="n">
+        <v>216</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="E428" s="0" t="s">
         <v>876</v>
-      </c>
-      <c r="B428" s="0" t="n">
-        <v>3392</v>
-      </c>
-      <c r="C428" s="0" t="n">
-        <v>3395</v>
-      </c>
-      <c r="D428" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="E428" s="0" t="s">
-        <v>879</v>
       </c>
       <c r="F428" s="0" t="n">
         <v>3</v>
@@ -11544,19 +11756,19 @@
     </row>
     <row r="429" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B429" s="0" t="n">
-        <v>4017</v>
+        <v>681</v>
       </c>
       <c r="C429" s="0" t="n">
-        <v>4020</v>
+        <v>683</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="E429" s="0" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="F429" s="0" t="n">
         <v>3</v>
@@ -11564,481 +11776,861 @@
     </row>
     <row r="430" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="B430" s="0" t="n">
-        <v>6650</v>
+        <v>1929</v>
       </c>
       <c r="C430" s="0" t="n">
-        <v>6653</v>
+        <v>1931</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="E430" s="0" t="s">
-        <v>884</v>
+        <v>671</v>
       </c>
       <c r="F430" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
+        <v>880</v>
+      </c>
+      <c r="B431" s="0" t="n">
+        <v>1294</v>
+      </c>
+      <c r="C431" s="0" t="n">
+        <v>1296</v>
+      </c>
+      <c r="D431" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="E431" s="0" t="s">
         <v>882</v>
       </c>
-      <c r="B431" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="C431" s="0" t="n">
-        <v>132</v>
-      </c>
-      <c r="D431" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="E431" s="0" t="s">
-        <v>886</v>
-      </c>
       <c r="F431" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="B432" s="0" t="n">
-        <v>2729</v>
+        <v>4899</v>
       </c>
       <c r="C432" s="0" t="n">
-        <v>2731</v>
+        <v>4902</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="E432" s="0" t="s">
-        <v>889</v>
+        <v>147</v>
       </c>
       <c r="F432" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="B433" s="0" t="n">
-        <v>749</v>
+        <v>5929</v>
       </c>
       <c r="C433" s="0" t="n">
-        <v>751</v>
+        <v>5931</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="E433" s="0" t="s">
-        <v>891</v>
+        <v>586</v>
       </c>
       <c r="F433" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="B434" s="0" t="n">
-        <v>32</v>
+        <v>1036</v>
       </c>
       <c r="C434" s="0" t="n">
-        <v>34</v>
+        <v>1039</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="E434" s="0" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="F434" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="B435" s="0" t="n">
-        <v>319</v>
+        <v>2226</v>
       </c>
       <c r="C435" s="0" t="n">
-        <v>320</v>
+        <v>2230</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="E435" s="0" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
       <c r="F435" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="B436" s="0" t="n">
-        <v>4616</v>
+        <v>602</v>
       </c>
       <c r="C436" s="0" t="n">
-        <v>4618</v>
+        <v>606</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="E436" s="0" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="F436" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B437" s="0" t="n">
-        <v>213</v>
+        <v>1036</v>
       </c>
       <c r="C437" s="0" t="n">
-        <v>215</v>
+        <v>1038</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="E437" s="0" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="F437" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="B438" s="0" t="n">
-        <v>603</v>
+        <v>8</v>
       </c>
       <c r="C438" s="0" t="n">
-        <v>605</v>
+        <v>9</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="E438" s="0" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="F438" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="B439" s="0" t="n">
-        <v>2933</v>
+        <v>4216</v>
       </c>
       <c r="C439" s="0" t="n">
-        <v>2936</v>
+        <v>4219</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="E439" s="0" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="F439" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="B440" s="0" t="n">
-        <v>5941</v>
+        <v>798</v>
       </c>
       <c r="C440" s="0" t="n">
-        <v>5943</v>
+        <v>802</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="E440" s="0" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="F440" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="B441" s="0" t="n">
-        <v>388</v>
+        <v>568</v>
       </c>
       <c r="C441" s="0" t="n">
-        <v>390</v>
+        <v>570</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="E441" s="0" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="F441" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
-        <v>911</v>
+        <v>896</v>
       </c>
       <c r="B442" s="0" t="n">
-        <v>5642</v>
+        <v>3985</v>
       </c>
       <c r="C442" s="0" t="n">
-        <v>5644</v>
+        <v>3987</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="E442" s="0" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="F442" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="B443" s="0" t="n">
-        <v>57</v>
+        <v>3255</v>
       </c>
       <c r="C443" s="0" t="n">
-        <v>60</v>
+        <v>3256</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="E443" s="0" t="s">
-        <v>816</v>
+        <v>905</v>
       </c>
       <c r="F443" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
       <c r="B444" s="0" t="n">
-        <v>984</v>
+        <v>2741</v>
       </c>
       <c r="C444" s="0" t="n">
-        <v>986</v>
+        <v>2743</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="E444" s="0" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="F444" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
       <c r="B445" s="0" t="n">
-        <v>856</v>
+        <v>1738</v>
       </c>
       <c r="C445" s="0" t="n">
-        <v>859</v>
+        <v>1740</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="E445" s="0" t="s">
-        <v>919</v>
+        <v>570</v>
       </c>
       <c r="F445" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="B446" s="0" t="n">
-        <v>6180</v>
+        <v>254</v>
       </c>
       <c r="C446" s="0" t="n">
-        <v>6182</v>
+        <v>257</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="E446" s="0" t="s">
-        <v>862</v>
+        <v>398</v>
       </c>
       <c r="F446" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="B447" s="0" t="n">
-        <v>2739</v>
+        <v>3392</v>
       </c>
       <c r="C447" s="0" t="n">
-        <v>2741</v>
+        <v>3395</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="E447" s="0" t="s">
-        <v>923</v>
+        <v>728</v>
       </c>
       <c r="F447" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
-        <v>924</v>
+        <v>909</v>
       </c>
       <c r="B448" s="0" t="n">
-        <v>1947</v>
+        <v>4017</v>
       </c>
       <c r="C448" s="0" t="n">
-        <v>1950</v>
+        <v>4020</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>925</v>
+        <v>912</v>
       </c>
       <c r="E448" s="0" t="s">
-        <v>926</v>
+        <v>913</v>
       </c>
       <c r="F448" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
-        <v>927</v>
+        <v>914</v>
       </c>
       <c r="B449" s="0" t="n">
-        <v>6253</v>
+        <v>6650</v>
       </c>
       <c r="C449" s="0" t="n">
-        <v>6255</v>
+        <v>6653</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>928</v>
+        <v>915</v>
       </c>
       <c r="E449" s="0" t="s">
-        <v>220</v>
+        <v>916</v>
       </c>
       <c r="F449" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="B450" s="0" t="n">
-        <v>511</v>
+        <v>130</v>
       </c>
       <c r="C450" s="0" t="n">
-        <v>513</v>
+        <v>132</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>930</v>
+        <v>917</v>
       </c>
       <c r="E450" s="0" t="s">
-        <v>931</v>
+        <v>918</v>
       </c>
       <c r="F450" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
-        <v>932</v>
+        <v>919</v>
       </c>
       <c r="B451" s="0" t="n">
-        <v>781</v>
+        <v>2729</v>
       </c>
       <c r="C451" s="0" t="n">
-        <v>783</v>
+        <v>2731</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="E451" s="0" t="s">
-        <v>316</v>
+        <v>921</v>
       </c>
       <c r="F451" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
-        <v>934</v>
+        <v>919</v>
       </c>
       <c r="B452" s="0" t="n">
-        <v>5759</v>
+        <v>749</v>
       </c>
       <c r="C452" s="0" t="n">
-        <v>5761</v>
+        <v>751</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>935</v>
+        <v>922</v>
       </c>
       <c r="E452" s="0" t="s">
-        <v>349</v>
+        <v>923</v>
       </c>
       <c r="F452" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
+        <v>924</v>
+      </c>
+      <c r="B453" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C453" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D453" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="E453" s="0" t="s">
+        <v>926</v>
+      </c>
+      <c r="F453" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="0" t="s">
+        <v>924</v>
+      </c>
+      <c r="B454" s="0" t="n">
+        <v>319</v>
+      </c>
+      <c r="C454" s="0" t="n">
+        <v>320</v>
+      </c>
+      <c r="D454" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="E454" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="F454" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="0" t="s">
+        <v>928</v>
+      </c>
+      <c r="B455" s="0" t="n">
+        <v>4616</v>
+      </c>
+      <c r="C455" s="0" t="n">
+        <v>4618</v>
+      </c>
+      <c r="D455" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="E455" s="0" t="s">
+        <v>930</v>
+      </c>
+      <c r="F455" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="0" t="s">
+        <v>928</v>
+      </c>
+      <c r="B456" s="0" t="n">
+        <v>213</v>
+      </c>
+      <c r="C456" s="0" t="n">
+        <v>215</v>
+      </c>
+      <c r="D456" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="E456" s="0" t="s">
+        <v>932</v>
+      </c>
+      <c r="F456" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="B457" s="0" t="n">
+        <v>603</v>
+      </c>
+      <c r="C457" s="0" t="n">
+        <v>605</v>
+      </c>
+      <c r="D457" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="E457" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="F457" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="B458" s="0" t="n">
+        <v>2933</v>
+      </c>
+      <c r="C458" s="0" t="n">
+        <v>2936</v>
+      </c>
+      <c r="D458" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="B453" s="0" t="n">
+      <c r="E458" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="F458" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="B459" s="0" t="n">
+        <v>5941</v>
+      </c>
+      <c r="C459" s="0" t="n">
+        <v>5943</v>
+      </c>
+      <c r="D459" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="E459" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="F459" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="B460" s="0" t="n">
+        <v>388</v>
+      </c>
+      <c r="C460" s="0" t="n">
+        <v>390</v>
+      </c>
+      <c r="D460" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="E460" s="0" t="s">
+        <v>942</v>
+      </c>
+      <c r="F460" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="B461" s="0" t="n">
+        <v>5642</v>
+      </c>
+      <c r="C461" s="0" t="n">
+        <v>5644</v>
+      </c>
+      <c r="D461" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E461" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="F461" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="B462" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="C462" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D462" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="E462" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="F462" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="B463" s="0" t="n">
+        <v>984</v>
+      </c>
+      <c r="C463" s="0" t="n">
+        <v>986</v>
+      </c>
+      <c r="D463" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="E463" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="F463" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="B464" s="0" t="n">
+        <v>856</v>
+      </c>
+      <c r="C464" s="0" t="n">
+        <v>859</v>
+      </c>
+      <c r="D464" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="E464" s="0" t="s">
+        <v>951</v>
+      </c>
+      <c r="F464" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="B465" s="0" t="n">
+        <v>6180</v>
+      </c>
+      <c r="C465" s="0" t="n">
+        <v>6182</v>
+      </c>
+      <c r="D465" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="E465" s="0" t="s">
+        <v>895</v>
+      </c>
+      <c r="F465" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="B466" s="0" t="n">
+        <v>2739</v>
+      </c>
+      <c r="C466" s="0" t="n">
+        <v>2741</v>
+      </c>
+      <c r="D466" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="E466" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="F466" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="0" t="s">
+        <v>956</v>
+      </c>
+      <c r="B467" s="0" t="n">
+        <v>1947</v>
+      </c>
+      <c r="C467" s="0" t="n">
+        <v>1950</v>
+      </c>
+      <c r="D467" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="E467" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="F467" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="0" t="s">
+        <v>959</v>
+      </c>
+      <c r="B468" s="0" t="n">
+        <v>6253</v>
+      </c>
+      <c r="C468" s="0" t="n">
+        <v>6255</v>
+      </c>
+      <c r="D468" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="E468" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="F468" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="B469" s="0" t="n">
+        <v>511</v>
+      </c>
+      <c r="C469" s="0" t="n">
+        <v>513</v>
+      </c>
+      <c r="D469" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="E469" s="0" t="s">
+        <v>963</v>
+      </c>
+      <c r="F469" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="B470" s="0" t="n">
+        <v>781</v>
+      </c>
+      <c r="C470" s="0" t="n">
+        <v>783</v>
+      </c>
+      <c r="D470" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="E470" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="F470" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="0" t="s">
+        <v>966</v>
+      </c>
+      <c r="B471" s="0" t="n">
+        <v>5759</v>
+      </c>
+      <c r="C471" s="0" t="n">
+        <v>5761</v>
+      </c>
+      <c r="D471" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="E471" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="F471" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="B472" s="0" t="n">
         <v>6543</v>
       </c>
-      <c r="C453" s="0" t="n">
+      <c r="C472" s="0" t="n">
         <v>6545</v>
       </c>
-      <c r="D453" s="2" t="s">
-        <v>937</v>
-      </c>
-      <c r="E453" s="0" t="s">
-        <v>938</v>
-      </c>
-      <c r="F453" s="0" t="n">
+      <c r="D472" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="E472" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="F472" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12389,113 +12981,132 @@
     <hyperlink ref="D344" r:id="rId343" display="https://www.youtube.com/watch?v=rUafZNR1GxY&amp;t=399s"/>
     <hyperlink ref="D345" r:id="rId344" display="https://www.youtube.com/watch?v=xJMJ97AX5zE&amp;t=7089s"/>
     <hyperlink ref="D346" r:id="rId345" display="https://www.youtube.com/watch?v=yGMZGa090vU&amp;t=8071s"/>
-    <hyperlink ref="D347" r:id="rId346" display="https://www.youtube.com/watch?v=i4cQkYkr8Lo&amp;t=1413s"/>
-    <hyperlink ref="D348" r:id="rId347" display="https://www.youtube.com/watch?v=df634Rr9A54&amp;t=660s"/>
-    <hyperlink ref="D349" r:id="rId348" display="https://www.youtube.com/watch?v=gQg3cyWahgc&amp;t=8100s"/>
-    <hyperlink ref="D350" r:id="rId349" display="https://www.youtube.com/watch?v=BxSZ84hmtmE&amp;t=415s"/>
-    <hyperlink ref="D351" r:id="rId350" display="https://www.youtube.com/watch?v=FUS0hsPCtMs&amp;t=1006s"/>
-    <hyperlink ref="D352" r:id="rId351" display="https://www.youtube.com/watch?v=BWSxerD3LDc&amp;t=1800s"/>
-    <hyperlink ref="D353" r:id="rId352" display="https://www.youtube.com/watch?v=WyHI8VAPJzw&amp;t=7170s"/>
-    <hyperlink ref="D354" r:id="rId353" display="https://www.youtube.com/watch?v=zGtfxNItG6E&amp;t=303s"/>
-    <hyperlink ref="D355" r:id="rId354" display="https://www.youtube.com/watch?v=AdI2pRBoyYc&amp;t=3061s"/>
-    <hyperlink ref="D356" r:id="rId355" display="https://www.youtube.com/watch?v=VxK7lhI_2pc&amp;t=3783s"/>
-    <hyperlink ref="D357" r:id="rId356" display="https://www.youtube.com/watch?v=7L64XN3or3I&amp;t=108s"/>
-    <hyperlink ref="D358" r:id="rId357" display="https://www.youtube.com/watch?v=OhwOTZKS0eI&amp;t=88s"/>
-    <hyperlink ref="D359" r:id="rId358" display="https://www.youtube.com/watch?v=XiNcefaL6ug&amp;t=214s"/>
-    <hyperlink ref="D360" r:id="rId359" display="https://www.youtube.com/watch?v=v7PglYyVLPQ&amp;t=1935s"/>
-    <hyperlink ref="D361" r:id="rId360" display="https://www.youtube.com/watch?v=3PDJDym1ZXQ&amp;t=4156s"/>
-    <hyperlink ref="D362" r:id="rId361" display="https://www.youtube.com/watch?v=d3LdJzLdpCI&amp;t=2243s"/>
-    <hyperlink ref="D363" r:id="rId362" display="https://www.youtube.com/watch?v=QIY5a9P6030&amp;t=5415s"/>
-    <hyperlink ref="D364" r:id="rId363" display="https://www.youtube.com/watch?v=7G29Odeyqpk&amp;t=3220s"/>
-    <hyperlink ref="D365" r:id="rId364" display="https://www.youtube.com/watch?v=egPzPanHpXw&amp;t=2416s"/>
-    <hyperlink ref="D366" r:id="rId365" display="https://www.youtube.com/watch?v=tZhwCfkzPl0&amp;t=94s"/>
-    <hyperlink ref="D367" r:id="rId366" display="https://www.youtube.com/watch?v=W_ofzCKTKvY&amp;t=90s"/>
-    <hyperlink ref="D368" r:id="rId367" display="https://www.youtube.com/watch?v=GoUvHJULnt8&amp;t=435s"/>
-    <hyperlink ref="D369" r:id="rId368" display="https://www.youtube.com/watch?v=dPEQnpgBi5c&amp;t=24s"/>
-    <hyperlink ref="D370" r:id="rId369" display="https://www.youtube.com/watch?v=gE85fd99w44&amp;t=2120s"/>
-    <hyperlink ref="D371" r:id="rId370" display="https://www.youtube.com/watch?v=a5CrSSneht4&amp;t=1862s"/>
-    <hyperlink ref="D372" r:id="rId371" display="https://www.youtube.com/watch?v=Fc4drtbgDb0&amp;t=6615s"/>
-    <hyperlink ref="D373" r:id="rId372" display="https://www.youtube.com/watch?v=moEFBCub_CI&amp;t=353s"/>
-    <hyperlink ref="D374" r:id="rId373" display="https://www.youtube.com/watch?v=EFEFEcYl9es&amp;t=4785s"/>
-    <hyperlink ref="D375" r:id="rId374" display="https://www.youtube.com/watch?v=Ba_ffkYzPds&amp;t=7348s"/>
-    <hyperlink ref="D376" r:id="rId375" display="https://www.youtube.com/watch?v=xg7ZaRa81Ok&amp;t=1406s"/>
-    <hyperlink ref="D377" r:id="rId376" display="https://www.youtube.com/watch?v=P0U8Cuf5lGM&amp;t=3016s"/>
-    <hyperlink ref="D378" r:id="rId377" display="https://www.youtube.com/watch?v=TrgPuJHj7p8&amp;t=6793s"/>
-    <hyperlink ref="D379" r:id="rId378" display="https://www.youtube.com/watch?v=DRgO_DeUJi4&amp;t=5711s"/>
-    <hyperlink ref="D380" r:id="rId379" display="https://www.youtube.com/watch?v=jWVWwpm_IHw&amp;t=1480s"/>
-    <hyperlink ref="D381" r:id="rId380" display="https://www.youtube.com/watch?v=g6yvs1f4S1s&amp;t=7915s"/>
-    <hyperlink ref="D382" r:id="rId381" display="https://www.youtube.com/watch?v=R2C3fHcNm1k&amp;t=7644s"/>
-    <hyperlink ref="D383" r:id="rId382" display="https://www.youtube.com/watch?v=OALASDJOKb8&amp;t=1390s"/>
-    <hyperlink ref="D384" r:id="rId383" display="https://www.youtube.com/watch?v=GrNe1flIAJo&amp;t=682s"/>
-    <hyperlink ref="D385" r:id="rId384" display="https://www.youtube.com/watch?v=g6yvs1f4S1s&amp;t=5685s"/>
-    <hyperlink ref="D386" r:id="rId385" display="https://www.youtube.com/watch?v=_FsOnRDIJQQ&amp;t=4250s"/>
-    <hyperlink ref="D387" r:id="rId386" display="https://www.youtube.com/watch?v=ugLGoSZvuOc&amp;t=6832s"/>
-    <hyperlink ref="D388" r:id="rId387" display="https://www.youtube.com/watch?v=ugLGoSZvuOc&amp;t=6848s"/>
-    <hyperlink ref="D389" r:id="rId388" display="https://www.youtube.com/watch?v=MItD3hP_kqU&amp;t=476s"/>
-    <hyperlink ref="D390" r:id="rId389" display="https://www.youtube.com/watch?v=gIgjKheyn3o&amp;t=2278s"/>
-    <hyperlink ref="D391" r:id="rId390" display="https://www.youtube.com/watch?v=L9YI383QOsU&amp;t=1226s"/>
-    <hyperlink ref="D392" r:id="rId391" display="https://www.youtube.com/watch?v=jwYlYq6oGIU&amp;t=5837s"/>
-    <hyperlink ref="D393" r:id="rId392" display="https://www.youtube.com/watch?v=K_ODmf7NbaE&amp;t=119s"/>
-    <hyperlink ref="D394" r:id="rId393" display="https://www.youtube.com/watch?v=6Pr093ZQF5A&amp;t=2328s"/>
-    <hyperlink ref="D395" r:id="rId394" display="https://www.youtube.com/watch?v=rXAAGktXqQ4&amp;t=1738s"/>
-    <hyperlink ref="D396" r:id="rId395" display="https://www.youtube.com/watch?v=6_VFindbcQY&amp;t=808s"/>
-    <hyperlink ref="D397" r:id="rId396" display="https://www.youtube.com/watch?v=eclvhqDvwF8&amp;t=196s"/>
-    <hyperlink ref="D398" r:id="rId397" display="https://www.youtube.com/watch?v=rDo7bb0Ts4o&amp;t=975s"/>
-    <hyperlink ref="D399" r:id="rId398" display="https://www.youtube.com/watch?v=MhHCQ_cb3T8&amp;t=7353s"/>
-    <hyperlink ref="D400" r:id="rId399" display="https://www.youtube.com/watch?v=r6RJWuLenrU&amp;t=3172s"/>
-    <hyperlink ref="D401" r:id="rId400" display="https://www.youtube.com/watch?v=LC2QScFT5QI&amp;t=3411s"/>
-    <hyperlink ref="D402" r:id="rId401" display="https://www.youtube.com/watch?v=OeHxe75lMNE&amp;t=5911s"/>
-    <hyperlink ref="D403" r:id="rId402" display="https://www.youtube.com/watch?v=6Pr093ZQF5A&amp;t=1643s"/>
-    <hyperlink ref="D404" r:id="rId403" display="https://www.youtube.com/watch?v=mTAPsjfzjFM&amp;t=1479s"/>
-    <hyperlink ref="D405" r:id="rId404" display="https://www.youtube.com/watch?v=A0f5ba2teCU&amp;t=706s"/>
-    <hyperlink ref="D406" r:id="rId405" display="https://www.youtube.com/watch?v=n4NhvxPxpuw&amp;t=831s"/>
-    <hyperlink ref="D407" r:id="rId406" display="https://www.youtube.com/watch?v=vjPoFyTUt8Q&amp;t=98s"/>
-    <hyperlink ref="D408" r:id="rId407" display="https://www.youtube.com/watch?v=FfW2yyxBHpg&amp;t=858s"/>
-    <hyperlink ref="D409" r:id="rId408" display="https://www.youtube.com/watch?v=lQ2yjMzByCI&amp;t=213s"/>
-    <hyperlink ref="D410" r:id="rId409" display="https://www.youtube.com/watch?v=ryJ7MtDof9Y&amp;t=681s"/>
-    <hyperlink ref="D411" r:id="rId410" display="https://www.youtube.com/watch?v=24MOyiODODk&amp;t=1929s"/>
-    <hyperlink ref="D412" r:id="rId411" display="https://www.youtube.com/watch?v=8V9tq1pe8eI&amp;t=1294s"/>
-    <hyperlink ref="D413" r:id="rId412" display="https://www.youtube.com/watch?v=bIppytTQ0aI&amp;t=4899s"/>
-    <hyperlink ref="D414" r:id="rId413" display="https://www.youtube.com/watch?v=g6yvs1f4S1s&amp;t=5929s"/>
-    <hyperlink ref="D415" r:id="rId414" display="https://www.youtube.com/watch?v=K8fgPqaaJrA&amp;t=1036s"/>
-    <hyperlink ref="D416" r:id="rId415" display="https://www.youtube.com/watch?v=zgQbOmPp9pk&amp;t=2226s"/>
-    <hyperlink ref="D417" r:id="rId416" display="https://www.youtube.com/watch?v=pHR9Y_R6DGQ&amp;t=602s"/>
-    <hyperlink ref="D418" r:id="rId417" display="https://www.youtube.com/watch?v=K8fgPqaaJrA&amp;t=1036s"/>
-    <hyperlink ref="D419" r:id="rId418" display="https://www.youtube.com/watch?v=zcB4iv0Jzbw&amp;t=8s"/>
-    <hyperlink ref="D420" r:id="rId419" display="https://www.youtube.com/watch?v=OQqWR2Zii_8&amp;t=4216s"/>
-    <hyperlink ref="D421" r:id="rId420" display="https://www.youtube.com/watch?v=bm4w8nD3JzQ&amp;t=798s"/>
-    <hyperlink ref="D422" r:id="rId421" display="https://www.youtube.com/watch?v=SZ96HsOLAT4&amp;t=568s"/>
-    <hyperlink ref="D423" r:id="rId422" display="https://www.youtube.com/watch?v=kT3mXnMeBXM&amp;t=3985s"/>
-    <hyperlink ref="D424" r:id="rId423" display="https://www.youtube.com/watch?v=7hf6KFdMcC0&amp;t=3255s"/>
-    <hyperlink ref="D425" r:id="rId424" display="https://www.youtube.com/watch?v=pZUgbSkK8to&amp;t=2741s"/>
-    <hyperlink ref="D426" r:id="rId425" display="https://www.youtube.com/watch?v=jwYlYq6oGIU&amp;t=1738s"/>
-    <hyperlink ref="D427" r:id="rId426" display="https://www.youtube.com/watch?v=Iw1u6ZYA4t8&amp;t=254s"/>
-    <hyperlink ref="D428" r:id="rId427" display="https://www.youtube.com/watch?v=OTDkvCGQyVQ&amp;t=3392s"/>
-    <hyperlink ref="D429" r:id="rId428" display="https://www.youtube.com/watch?v=y3rhd_QEgck&amp;t=4017s"/>
-    <hyperlink ref="D430" r:id="rId429" display="https://www.youtube.com/watch?v=CbkPKh8ETYc&amp;t=6650s"/>
-    <hyperlink ref="D431" r:id="rId430" display="https://www.youtube.com/watch?v=TvD5vPm3dfk&amp;t=130s"/>
-    <hyperlink ref="D432" r:id="rId431" display="https://www.youtube.com/watch?v=ok43drtlLz0&amp;t=2729s"/>
-    <hyperlink ref="D433" r:id="rId432" display="https://www.youtube.com/watch?v=VzghU3Dg_Qk&amp;t=749s"/>
-    <hyperlink ref="D434" r:id="rId433" display="https://www.youtube.com/watch?v=PIpqGqIK22g&amp;t=32s"/>
-    <hyperlink ref="D435" r:id="rId434" display="https://www.youtube.com/watch?v=BWSxerD3LDc&amp;t=319s"/>
-    <hyperlink ref="D436" r:id="rId435" display="https://www.youtube.com/watch?v=tN1putCohn4&amp;t=4616s"/>
-    <hyperlink ref="D437" r:id="rId436" display="https://www.youtube.com/watch?v=ud9s8aerIJE&amp;t=213s"/>
-    <hyperlink ref="D438" r:id="rId437" display="https://www.youtube.com/watch?v=9KRJZByi__U&amp;t=603s"/>
-    <hyperlink ref="D439" r:id="rId438" display="https://www.youtube.com/watch?v=vl7mATkmpEo&amp;t=2933s"/>
-    <hyperlink ref="D440" r:id="rId439" display="https://www.youtube.com/watch?v=P_KbNZi5uUo&amp;t=5941s"/>
-    <hyperlink ref="D441" r:id="rId440" display="https://www.youtube.com/watch?v=CS9LZtP2heg&amp;t=388s"/>
-    <hyperlink ref="D442" r:id="rId441" display="https://www.youtube.com/watch?v=Yr2ZLfWT0i8&amp;t=5642s"/>
-    <hyperlink ref="D443" r:id="rId442" display="https://www.youtube.com/watch?v=eclvhqDvwF8&amp;t=57s"/>
-    <hyperlink ref="D444" r:id="rId443" display="https://www.youtube.com/watch?v=uSmYsUnuNM0&amp;t=984s"/>
-    <hyperlink ref="D445" r:id="rId444" display="https://www.youtube.com/watch?v=88X1K2jiCbQ&amp;t=856s"/>
-    <hyperlink ref="D446" r:id="rId445" display="https://www.youtube.com/watch?v=OQqWR2Zii_8&amp;t=6180s"/>
-    <hyperlink ref="D447" r:id="rId446" display="https://www.youtube.com/watch?v=lNfbZbkcVVE&amp;t=2739s"/>
-    <hyperlink ref="D448" r:id="rId447" display="https://www.youtube.com/watch?v=SUfgeDos2Kw&amp;t=1947s"/>
-    <hyperlink ref="D449" r:id="rId448" display="https://www.youtube.com/watch?v=IDBLfpy15Jk&amp;t=6253s"/>
-    <hyperlink ref="D450" r:id="rId449" display="https://www.youtube.com/watch?v=nTYDDNdrdZM&amp;t=511s"/>
-    <hyperlink ref="D451" r:id="rId450" display="https://www.youtube.com/watch?v=iSIdXpAd76I&amp;t=781s"/>
-    <hyperlink ref="D452" r:id="rId451" display="https://www.youtube.com/watch?v=O5SvwYGbXCE&amp;t=5759s"/>
-    <hyperlink ref="D453" r:id="rId452" display="https://www.youtube.com/watch?v=liz1ODAVzyk&amp;t=6543s"/>
+    <hyperlink ref="D347" r:id="rId346" display="https://www.youtube.com/watch?v=OiD6A0UMNJ8&amp;t=830s"/>
+    <hyperlink ref="D348" r:id="rId347" display="https://www.youtube.com/watch?v=2c6JXo1iJUs&amp;t=940s"/>
+    <hyperlink ref="D349" r:id="rId348" display="https://www.youtube.com/watch?v=i4cQkYkr8Lo&amp;t=1413s"/>
+    <hyperlink ref="D350" r:id="rId349" display="https://www.youtube.com/watch?v=df634Rr9A54&amp;t=660s"/>
+    <hyperlink ref="D351" r:id="rId350" display="https://www.youtube.com/watch?v=gQg3cyWahgc&amp;t=8100s"/>
+    <hyperlink ref="D352" r:id="rId351" display="https://www.youtube.com/watch?v=BxSZ84hmtmE&amp;t=415s"/>
+    <hyperlink ref="D353" r:id="rId352" display="https://www.youtube.com/watch?v=OTDkvCGQyVQ&amp;t=1673s"/>
+    <hyperlink ref="D354" r:id="rId353" display="https://www.youtube.com/watch?v=FO07ssbT9bA&amp;t=1586s"/>
+    <hyperlink ref="D355" r:id="rId354" display="https://www.youtube.com/watch?v=buS3wjzkPew&amp;t=832s"/>
+    <hyperlink ref="D356" r:id="rId355" display="https://www.youtube.com/watch?v=FUS0hsPCtMs&amp;t=1006s"/>
+    <hyperlink ref="D357" r:id="rId356" display="https://www.youtube.com/watch?v=BWSxerD3LDc&amp;t=1800s"/>
+    <hyperlink ref="D358" r:id="rId357" display="https://www.youtube.com/watch?v=WyHI8VAPJzw&amp;t=7170s"/>
+    <hyperlink ref="D359" r:id="rId358" display="https://www.youtube.com/watch?v=zGtfxNItG6E&amp;t=303s"/>
+    <hyperlink ref="D360" r:id="rId359" display="https://www.youtube.com/watch?v=zgQbOmPp9pk&amp;t=6230s"/>
+    <hyperlink ref="D361" r:id="rId360" display="https://www.youtube.com/watch?v=rAkxQk_SimU&amp;t=3153s"/>
+    <hyperlink ref="D362" r:id="rId361" display="https://www.youtube.com/watch?v=D6Va3TXwFEQ&amp;t=2234s"/>
+    <hyperlink ref="D363" r:id="rId362" display="https://www.youtube.com/watch?v=AdI2pRBoyYc&amp;t=3061s"/>
+    <hyperlink ref="D364" r:id="rId363" display="https://www.youtube.com/watch?v=VxK7lhI_2pc&amp;t=3783s"/>
+    <hyperlink ref="D365" r:id="rId364" display="https://www.youtube.com/watch?v=7L64XN3or3I&amp;t=108s"/>
+    <hyperlink ref="D366" r:id="rId365" display="https://www.youtube.com/watch?v=OhwOTZKS0eI&amp;t=88s"/>
+    <hyperlink ref="D367" r:id="rId366" display="https://www.youtube.com/watch?v=XiNcefaL6ug&amp;t=214s"/>
+    <hyperlink ref="D368" r:id="rId367" display="https://www.youtube.com/watch?v=v7PglYyVLPQ&amp;t=1935s"/>
+    <hyperlink ref="D369" r:id="rId368" display="https://www.youtube.com/watch?v=3PDJDym1ZXQ&amp;t=4156s"/>
+    <hyperlink ref="D370" r:id="rId369" display="https://www.youtube.com/watch?v=d3LdJzLdpCI&amp;t=2243s"/>
+    <hyperlink ref="D371" r:id="rId370" display="https://www.youtube.com/watch?v=jryVCDO7PTo&amp;t=330s"/>
+    <hyperlink ref="D372" r:id="rId371" display="https://www.youtube.com/watch?v=Es7EfSMiXmU&amp;t=43s"/>
+    <hyperlink ref="D373" r:id="rId372" display="https://www.youtube.com/watch?v=kJHnaKS0Igg&amp;t=102s"/>
+    <hyperlink ref="D374" r:id="rId373" display="https://www.youtube.com/watch?v=QIY5a9P6030&amp;t=5415s"/>
+    <hyperlink ref="D375" r:id="rId374" display="https://www.youtube.com/watch?v=7G29Odeyqpk&amp;t=3221s"/>
+    <hyperlink ref="D376" r:id="rId375" display="https://www.youtube.com/watch?v=egPzPanHpXw&amp;t=2416s"/>
+    <hyperlink ref="D377" r:id="rId376" display="https://www.youtube.com/watch?v=tZhwCfkzPl0&amp;t=94s"/>
+    <hyperlink ref="D378" r:id="rId377" display="https://www.youtube.com/watch?v=pkYbaLz6qjM&amp;t=156s"/>
+    <hyperlink ref="D379" r:id="rId378" display="https://www.youtube.com/watch?v=8xaLfHCU2KM&amp;t=4778s"/>
+    <hyperlink ref="D380" r:id="rId379" display="https://www.youtube.com/watch?v=W_ofzCKTKvY&amp;t=90s"/>
+    <hyperlink ref="D381" r:id="rId380" display="https://www.youtube.com/watch?v=GoUvHJULnt8&amp;t=435s"/>
+    <hyperlink ref="D382" r:id="rId381" display="https://www.youtube.com/watch?v=dPEQnpgBi5c&amp;t=24s"/>
+    <hyperlink ref="D383" r:id="rId382" display="https://www.youtube.com/watch?v=gE85fd99w44&amp;t=2120s"/>
+    <hyperlink ref="D384" r:id="rId383" display="https://www.youtube.com/watch?v=nPVd4XaeM34&amp;t=1643s"/>
+    <hyperlink ref="D385" r:id="rId384" display="https://www.youtube.com/watch?v=AXjhxdgCkNw&amp;t=551s"/>
+    <hyperlink ref="D386" r:id="rId385" display="https://www.youtube.com/watch?v=Su_bfE13oc8&amp;t=4065s"/>
+    <hyperlink ref="D387" r:id="rId386" display="https://www.youtube.com/watch?v=a5CrSSneht4&amp;t=1862s"/>
+    <hyperlink ref="D388" r:id="rId387" display="https://www.youtube.com/watch?v=Fc4drtbgDb0&amp;t=6615s"/>
+    <hyperlink ref="D389" r:id="rId388" display="https://www.youtube.com/watch?v=moEFBCub_CI&amp;t=353s"/>
+    <hyperlink ref="D390" r:id="rId389" display="https://www.youtube.com/watch?v=EFEFEcYl9es&amp;t=4785s"/>
+    <hyperlink ref="D391" r:id="rId390" display="https://www.youtube.com/watch?v=8QOE7g7D9J8&amp;t=530s"/>
+    <hyperlink ref="D392" r:id="rId391" display="https://www.youtube.com/watch?v=w7ksvoT60Xk&amp;t=636s"/>
+    <hyperlink ref="D393" r:id="rId392" display="https://www.youtube.com/watch?v=84Q__dx_G4w&amp;t=51s"/>
+    <hyperlink ref="D394" r:id="rId393" display="https://www.youtube.com/watch?v=Ba_ffkYzPds&amp;t=7348s"/>
+    <hyperlink ref="D395" r:id="rId394" display="https://www.youtube.com/watch?v=xg7ZaRa81Ok&amp;t=1406s"/>
+    <hyperlink ref="D396" r:id="rId395" display="https://www.youtube.com/watch?v=P0U8Cuf5lGM&amp;t=3016s"/>
+    <hyperlink ref="D397" r:id="rId396" display="https://www.youtube.com/watch?v=TrgPuJHj7p8&amp;t=6793s"/>
+    <hyperlink ref="D398" r:id="rId397" display="https://www.youtube.com/watch?v=DRgO_DeUJi4&amp;t=5711s"/>
+    <hyperlink ref="D399" r:id="rId398" display="https://www.youtube.com/watch?v=jWVWwpm_IHw&amp;t=1480s"/>
+    <hyperlink ref="D400" r:id="rId399" display="https://www.youtube.com/watch?v=g6yvs1f4S1s&amp;t=7915s"/>
+    <hyperlink ref="D401" r:id="rId400" display="https://www.youtube.com/watch?v=R2C3fHcNm1k&amp;t=7644s"/>
+    <hyperlink ref="D402" r:id="rId401" display="https://www.youtube.com/watch?v=OALASDJOKb8&amp;t=1390s"/>
+    <hyperlink ref="D403" r:id="rId402" display="https://www.youtube.com/watch?v=GrNe1flIAJo&amp;t=682s"/>
+    <hyperlink ref="D404" r:id="rId403" display="https://www.youtube.com/watch?v=g6yvs1f4S1s&amp;t=5685s"/>
+    <hyperlink ref="D405" r:id="rId404" display="https://www.youtube.com/watch?v=_FsOnRDIJQQ&amp;t=4250s"/>
+    <hyperlink ref="D406" r:id="rId405" display="https://www.youtube.com/watch?v=ugLGoSZvuOc&amp;t=6832s"/>
+    <hyperlink ref="D407" r:id="rId406" display="https://www.youtube.com/watch?v=ugLGoSZvuOc&amp;t=6848s"/>
+    <hyperlink ref="D408" r:id="rId407" display="https://www.youtube.com/watch?v=MItD3hP_kqU&amp;t=476s"/>
+    <hyperlink ref="D409" r:id="rId408" display="https://www.youtube.com/watch?v=gIgjKheyn3o&amp;t=2278s"/>
+    <hyperlink ref="D410" r:id="rId409" display="https://www.youtube.com/watch?v=L9YI383QOsU&amp;t=1226s"/>
+    <hyperlink ref="D411" r:id="rId410" display="https://www.youtube.com/watch?v=jwYlYq6oGIU&amp;t=5837s"/>
+    <hyperlink ref="D412" r:id="rId411" display="https://www.youtube.com/watch?v=K_ODmf7NbaE&amp;t=119s"/>
+    <hyperlink ref="D413" r:id="rId412" display="https://www.youtube.com/watch?v=6Pr093ZQF5A&amp;t=2328s"/>
+    <hyperlink ref="D414" r:id="rId413" display="https://www.youtube.com/watch?v=rXAAGktXqQ4&amp;t=1738s"/>
+    <hyperlink ref="D415" r:id="rId414" display="https://www.youtube.com/watch?v=6_VFindbcQY&amp;t=808s"/>
+    <hyperlink ref="D416" r:id="rId415" display="https://www.youtube.com/watch?v=eclvhqDvwF8&amp;t=196s"/>
+    <hyperlink ref="D417" r:id="rId416" display="https://www.youtube.com/watch?v=rDo7bb0Ts4o&amp;t=975s"/>
+    <hyperlink ref="D418" r:id="rId417" display="https://www.youtube.com/watch?v=MhHCQ_cb3T8&amp;t=7353s"/>
+    <hyperlink ref="D419" r:id="rId418" display="https://www.youtube.com/watch?v=r6RJWuLenrU&amp;t=3172s"/>
+    <hyperlink ref="D420" r:id="rId419" display="https://www.youtube.com/watch?v=LC2QScFT5QI&amp;t=3411s"/>
+    <hyperlink ref="D421" r:id="rId420" display="https://www.youtube.com/watch?v=OeHxe75lMNE&amp;t=5911s"/>
+    <hyperlink ref="D422" r:id="rId421" display="https://www.youtube.com/watch?v=6Pr093ZQF5A&amp;t=1643s"/>
+    <hyperlink ref="D423" r:id="rId422" display="https://www.youtube.com/watch?v=mTAPsjfzjFM&amp;t=1479s"/>
+    <hyperlink ref="D424" r:id="rId423" display="https://www.youtube.com/watch?v=A0f5ba2teCU&amp;t=706s"/>
+    <hyperlink ref="D425" r:id="rId424" display="https://www.youtube.com/watch?v=n4NhvxPxpuw&amp;t=831s"/>
+    <hyperlink ref="D426" r:id="rId425" display="https://www.youtube.com/watch?v=vjPoFyTUt8Q&amp;t=98s"/>
+    <hyperlink ref="D427" r:id="rId426" display="https://www.youtube.com/watch?v=FfW2yyxBHpg&amp;t=858s"/>
+    <hyperlink ref="D428" r:id="rId427" display="https://www.youtube.com/watch?v=lQ2yjMzByCI&amp;t=213s"/>
+    <hyperlink ref="D429" r:id="rId428" display="https://www.youtube.com/watch?v=ryJ7MtDof9Y&amp;t=681s"/>
+    <hyperlink ref="D430" r:id="rId429" display="https://www.youtube.com/watch?v=24MOyiODODk&amp;t=1929s"/>
+    <hyperlink ref="D431" r:id="rId430" display="https://www.youtube.com/watch?v=8V9tq1pe8eI&amp;t=1294s"/>
+    <hyperlink ref="D432" r:id="rId431" display="https://www.youtube.com/watch?v=bIppytTQ0aI&amp;t=4899s"/>
+    <hyperlink ref="D433" r:id="rId432" display="https://www.youtube.com/watch?v=g6yvs1f4S1s&amp;t=5929s"/>
+    <hyperlink ref="D434" r:id="rId433" display="https://www.youtube.com/watch?v=K8fgPqaaJrA&amp;t=1036s"/>
+    <hyperlink ref="D435" r:id="rId434" display="https://www.youtube.com/watch?v=zgQbOmPp9pk&amp;t=2226s"/>
+    <hyperlink ref="D436" r:id="rId435" display="https://www.youtube.com/watch?v=pHR9Y_R6DGQ&amp;t=602s"/>
+    <hyperlink ref="D437" r:id="rId436" display="https://www.youtube.com/watch?v=K8fgPqaaJrA&amp;t=1036s"/>
+    <hyperlink ref="D438" r:id="rId437" display="https://www.youtube.com/watch?v=zcB4iv0Jzbw&amp;t=8s"/>
+    <hyperlink ref="D439" r:id="rId438" display="https://www.youtube.com/watch?v=OQqWR2Zii_8&amp;t=4216s"/>
+    <hyperlink ref="D440" r:id="rId439" display="https://www.youtube.com/watch?v=bm4w8nD3JzQ&amp;t=798s"/>
+    <hyperlink ref="D441" r:id="rId440" display="https://www.youtube.com/watch?v=SZ96HsOLAT4&amp;t=568s"/>
+    <hyperlink ref="D442" r:id="rId441" display="https://www.youtube.com/watch?v=kT3mXnMeBXM&amp;t=3985s"/>
+    <hyperlink ref="D443" r:id="rId442" display="https://www.youtube.com/watch?v=7hf6KFdMcC0&amp;t=3255s"/>
+    <hyperlink ref="D444" r:id="rId443" display="https://www.youtube.com/watch?v=pZUgbSkK8to&amp;t=2741s"/>
+    <hyperlink ref="D445" r:id="rId444" display="https://www.youtube.com/watch?v=jwYlYq6oGIU&amp;t=1738s"/>
+    <hyperlink ref="D446" r:id="rId445" display="https://www.youtube.com/watch?v=Iw1u6ZYA4t8&amp;t=254s"/>
+    <hyperlink ref="D447" r:id="rId446" display="https://www.youtube.com/watch?v=OTDkvCGQyVQ&amp;t=3392s"/>
+    <hyperlink ref="D448" r:id="rId447" display="https://www.youtube.com/watch?v=y3rhd_QEgck&amp;t=4017s"/>
+    <hyperlink ref="D449" r:id="rId448" display="https://www.youtube.com/watch?v=CbkPKh8ETYc&amp;t=6650s"/>
+    <hyperlink ref="D450" r:id="rId449" display="https://www.youtube.com/watch?v=TvD5vPm3dfk&amp;t=130s"/>
+    <hyperlink ref="D451" r:id="rId450" display="https://www.youtube.com/watch?v=ok43drtlLz0&amp;t=2729s"/>
+    <hyperlink ref="D452" r:id="rId451" display="https://www.youtube.com/watch?v=VzghU3Dg_Qk&amp;t=749s"/>
+    <hyperlink ref="D453" r:id="rId452" display="https://www.youtube.com/watch?v=PIpqGqIK22g&amp;t=32s"/>
+    <hyperlink ref="D454" r:id="rId453" display="https://www.youtube.com/watch?v=BWSxerD3LDc&amp;t=319s"/>
+    <hyperlink ref="D455" r:id="rId454" display="https://www.youtube.com/watch?v=tN1putCohn4&amp;t=4616s"/>
+    <hyperlink ref="D456" r:id="rId455" display="https://www.youtube.com/watch?v=ud9s8aerIJE&amp;t=213s"/>
+    <hyperlink ref="D457" r:id="rId456" display="https://www.youtube.com/watch?v=9KRJZByi__U&amp;t=603s"/>
+    <hyperlink ref="D458" r:id="rId457" display="https://www.youtube.com/watch?v=vl7mATkmpEo&amp;t=2933s"/>
+    <hyperlink ref="D459" r:id="rId458" display="https://www.youtube.com/watch?v=P_KbNZi5uUo&amp;t=5941s"/>
+    <hyperlink ref="D460" r:id="rId459" display="https://www.youtube.com/watch?v=CS9LZtP2heg&amp;t=388s"/>
+    <hyperlink ref="D461" r:id="rId460" display="https://www.youtube.com/watch?v=Yr2ZLfWT0i8&amp;t=5642s"/>
+    <hyperlink ref="D462" r:id="rId461" display="https://www.youtube.com/watch?v=eclvhqDvwF8&amp;t=57s"/>
+    <hyperlink ref="D463" r:id="rId462" display="https://www.youtube.com/watch?v=uSmYsUnuNM0&amp;t=984s"/>
+    <hyperlink ref="D464" r:id="rId463" display="https://www.youtube.com/watch?v=88X1K2jiCbQ&amp;t=856s"/>
+    <hyperlink ref="D465" r:id="rId464" display="https://www.youtube.com/watch?v=OQqWR2Zii_8&amp;t=6180s"/>
+    <hyperlink ref="D466" r:id="rId465" display="https://www.youtube.com/watch?v=lNfbZbkcVVE&amp;t=2739s"/>
+    <hyperlink ref="D467" r:id="rId466" display="https://www.youtube.com/watch?v=SUfgeDos2Kw&amp;t=1947s"/>
+    <hyperlink ref="D468" r:id="rId467" display="https://www.youtube.com/watch?v=IDBLfpy15Jk&amp;t=6253s"/>
+    <hyperlink ref="D469" r:id="rId468" display="https://www.youtube.com/watch?v=nTYDDNdrdZM&amp;t=511s"/>
+    <hyperlink ref="D470" r:id="rId469" display="https://www.youtube.com/watch?v=iSIdXpAd76I&amp;t=781s"/>
+    <hyperlink ref="D471" r:id="rId470" display="https://www.youtube.com/watch?v=O5SvwYGbXCE&amp;t=5759s"/>
+    <hyperlink ref="D472" r:id="rId471" display="https://www.youtube.com/watch?v=liz1ODAVzyk&amp;t=6543s"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
